--- a/Documentação/Excel/Plano de risco.xlsx
+++ b/Documentação/Excel/Plano de risco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\OneDrive\Documentos\DevBand\Documentação\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\proj.DevBand\DevBand\Documentação\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A9DB09-22E2-471B-9E9E-AF0933B553EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EB597D-257B-4A57-8972-3DC80FB949E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F8BF544F-00D5-4FA9-9E96-1DB79AB018A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F8BF544F-00D5-4FA9-9E96-1DB79AB018A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -127,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +143,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +168,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -191,11 +223,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -203,26 +243,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,7 +585,7 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G8"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,426 +597,470 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="7">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7">
         <v>2</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="2">
         <v>6</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>2</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="E7" s="6">
-        <v>3</v>
-      </c>
-      <c r="F7" s="7">
-        <v>3</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="8">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="E9" s="5">
-        <v>3</v>
-      </c>
-      <c r="F9" s="8">
-        <v>3</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
+      <c r="B11" s="8">
         <v>4</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="8">
         <v>2</v>
       </c>
-      <c r="E11" s="5">
-        <v>3</v>
-      </c>
-      <c r="F11" s="10">
+      <c r="E11" s="8">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
         <v>6</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
+      <c r="B13" s="8">
         <v>5</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="5">
-        <v>3</v>
-      </c>
-      <c r="F13" s="8">
-        <v>3</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="E13" s="8">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
+      <c r="B15" s="8">
         <v>6</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="8">
         <v>2</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="8">
         <v>2</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="3">
         <v>4</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
+      <c r="B17" s="8">
         <v>7</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="8">
         <v>2</v>
       </c>
-      <c r="E17" s="5">
-        <v>3</v>
-      </c>
-      <c r="F17" s="10">
+      <c r="E17" s="8">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
         <v>6</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:L4"/>
+    <mergeCell ref="H19:L20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:L22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H15:L16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:L18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H11:L12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:L14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H9:L10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="H5:L6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -987,55 +1075,11 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H9:L10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H11:L12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:L14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H15:L16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:L18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H19:L20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:L22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:L4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
